--- a/data/line/filtered_europe_2022_edit.xlsx
+++ b/data/line/filtered_europe_2022_edit.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="449" documentId="8_{D986D3E2-7F2B-4CB5-984B-4CBEE472991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED9071B-1EC2-4922-83BB-05011F300453}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{9BCCDFD7-5DB7-496E-9A9F-5AF656E07684}"/>
+    <workbookView minimized="1" xWindow="3204" yWindow="2304" windowWidth="17280" windowHeight="8820" firstSheet="3" activeTab="5" xr2:uid="{9BCCDFD7-5DB7-496E-9A9F-5AF656E07684}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="7" r:id="rId1"/>
@@ -212,6 +212,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,7 +574,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +805,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1074,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890856B5-40DC-401D-9C4E-F2841D354FAC}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB17AB-A2B5-4313-9550-3C4945C8C1F5}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
